--- a/medicine/Sexualité et sexologie/Tara_Sue_Me/Tara_Sue_Me.xlsx
+++ b/medicine/Sexualité et sexologie/Tara_Sue_Me/Tara_Sue_Me.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tara Sue Me est une écrivaine américaine, auteur de romances érotiques. Elle habite dans le Sud-Est des États-Unis avec sa famille, ses deux chiens et son chat. Elle a écrit son premier roman à l'âge de douze ans[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tara Sue Me est une écrivaine américaine, auteur de romances érotiques. Elle habite dans le Sud-Est des États-Unis avec sa famille, ses deux chiens et son chat. Elle a écrit son premier roman à l'âge de douze ans.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série La Soumise
-La Soumise, Marabout, 2014 ((en) The Submissive, New American Library, 2013)  (ISBN 978-2-501-09257-9)
+          <t>Série La Soumise</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Soumise, Marabout, 2014 ((en) The Submissive, New American Library, 2013)  (ISBN 978-2-501-09257-9)
 Le Dominant, Marabout, 2014 ((en) The Dominant, New American Library, 2013)  (ISBN 978-2-501-09262-3)
 L'Apprentie, Marabout, 2014 ((en) The Training, New American Library, 2013)  (ISBN 978-2-501-09263-0)
 L'Appât, Marabout, 2015 ((en) The Enticement, New American Library, 2015)  (ISBN 978-2-501-10375-6)
@@ -549,16 +568,122 @@
 L'Impudique, Marabout, 2016 ((en) The Exhibitionist, New American Library, 2015)  (ISBN 978-2-501-10397-8)
 Le Maître, Marabout, 2016 ((en) The Master, New American Library, 2016)  (ISBN 978-2-501-11431-8)
 (en) The Exposure, New American Library, 2016
-(en) The Flirtation, New American Library, 2017
-Nouvelles
-Tome 3,5 : (en) The Chalet, 2014 : histoire sur Abby et Nathaniel.
+(en) The Flirtation, New American Library, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tara_Sue_Me</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tara_Sue_Me</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série La Soumise</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tome 3,5 : (en) The Chalet, 2014 : histoire sur Abby et Nathaniel.
 Tome 7,5 : (en) The Claiming, 2016 : histoire sur Sasha et Cole.
-Tome 9,5 : (en) The Mentor and the Master, 2018 : histoire sur Fritz et Kate.
-Série The Rack
-(en) Master Professor, 2017
-(en) Head Master, 2018
-Nouvelles indépendantes
-(en) Altered Allies, 2015</t>
+Tome 9,5 : (en) The Mentor and the Master, 2018 : histoire sur Fritz et Kate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tara_Sue_Me</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tara_Sue_Me</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série The Rack</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Master Professor, 2017
+(en) Head Master, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tara_Sue_Me</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tara_Sue_Me</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles indépendantes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Altered Allies, 2015</t>
         </is>
       </c>
     </row>
